--- a/data/income_statement/2digits/size/11_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/11_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>11-Manufacture of beverages</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>11-Manufacture of beverages</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,542 +841,612 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>34891.25829</v>
+        <v>44503.46785</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>31123.97036</v>
+        <v>49716.96719</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>37655.83312</v>
+        <v>51467.41895000001</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>29903.6172</v>
+        <v>46236.61386999999</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>33419.52068</v>
+        <v>54696.48753</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>30221.09537</v>
+        <v>55551.43349</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>21843.3336</v>
+        <v>45923.82292</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>20519.59073</v>
+        <v>46932.68534</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>25355.23165</v>
+        <v>46365.37181</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>117093.46395</v>
+        <v>153346.4798</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>63535.26985</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>111262.11748</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>126060.799</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>33962.83159</v>
+        <v>42920.06447</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>30337.4924</v>
+        <v>47875.73712</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>34958.63769</v>
+        <v>48146.67093</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>28695.08175</v>
+        <v>44482.60316</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>31663.69481</v>
+        <v>51119.4785</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>28340.29267</v>
+        <v>51038.35423</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>20394.15761</v>
+        <v>42892.99339</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>19009.40875</v>
+        <v>42175.6342</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>23876.25199</v>
+        <v>43634.69274</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>95514.64934</v>
+        <v>128749.91143</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>55338.66214</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>97565.25801999999</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>111118.666</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>111.91744</v>
+        <v>588.6103499999999</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>63.40053</v>
+        <v>358.65438</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>1904.99992</v>
+        <v>1905.17592</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>744.1816899999999</v>
+        <v>885.50964</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>1303.20098</v>
+        <v>1334.62912</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>980.47406</v>
+        <v>1266.61909</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>713.26838</v>
+        <v>994.83541</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>123.95247</v>
+        <v>1026.14538</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>930.2130999999999</v>
+        <v>1270.94202</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>19639.91971</v>
+        <v>21917.74429</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>6453.81523</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>8699.89552</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>11429.974</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>816.50926</v>
+        <v>994.79303</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>723.07743</v>
+        <v>1482.57569</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>792.19551</v>
+        <v>1415.5721</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>464.35376</v>
+        <v>868.5010699999999</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>452.62489</v>
+        <v>2242.37991</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>900.3286400000001</v>
+        <v>3246.46017</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>735.90761</v>
+        <v>2035.99412</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>1386.22951</v>
+        <v>3730.90576</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>548.76656</v>
+        <v>1459.73705</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>1938.8949</v>
+        <v>2678.82408</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>1742.79248</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>4996.963940000001</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>3512.159</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>356.81342</v>
+        <v>748.1636500000001</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>183.89978</v>
+        <v>698.52643</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>677.47924</v>
+        <v>1447.77974</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>452.20423</v>
+        <v>983.5342800000001</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>808.5458599999999</v>
+        <v>1299.01521</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>400.92196</v>
+        <v>1140.50427</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>708.9053699999999</v>
+        <v>2345.04178</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>195.59514</v>
+        <v>1618.86232</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>495.38583</v>
+        <v>2001.3912</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>2830.95081</v>
+        <v>4258.820610000001</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>2204.47891</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>3847.68763</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>6032.412</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>349.87946</v>
+        <v>522.79603</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>162.02061</v>
+        <v>439.37721</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>659.2816899999999</v>
+        <v>849.89115</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>128.60622</v>
+        <v>533.64214</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>565.24803</v>
+        <v>858.19183</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>356.2389</v>
+        <v>729.99441</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>681.28273</v>
+        <v>1589.22963</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>85.91477</v>
+        <v>890.5928</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>78.43541999999999</v>
+        <v>1396.36904</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>888.52305</v>
+        <v>1694.92722</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>492.75309</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1411.52029</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>3427.908</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>5.55636</v>
+        <v>6.77804</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>0.07189</v>
+        <v>0.21899</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>2.40892</v>
+        <v>5.57755</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>14.83462</v>
+        <v>49.91776</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>48.4841</v>
+        <v>56.97636</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>20.28875</v>
+        <v>131.27356</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>0.53679</v>
+        <v>109.40525</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>79.7243</v>
+        <v>174.20182</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>298.73486</v>
+        <v>321.5602</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>326.22579</v>
+        <v>374.00617</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>202.2183</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>271.62833</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>148.95</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>1.3776</v>
+        <v>218.58958</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>21.80728</v>
+        <v>258.93023</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>15.78863</v>
+        <v>592.31104</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>308.76339</v>
+        <v>399.97438</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>194.81373</v>
+        <v>383.84702</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>24.39431</v>
+        <v>279.2363</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>27.08585</v>
+        <v>646.4069000000001</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>29.95607</v>
+        <v>554.0676999999999</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>118.21555</v>
+        <v>283.46196</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>1616.20197</v>
+        <v>2189.88722</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>1509.50752</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>2164.53901</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>2455.554</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>34534.44487</v>
+        <v>43755.30420000001</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>30940.07058</v>
+        <v>49018.44076</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>36978.35388</v>
+        <v>50019.63921</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>29451.41297</v>
+        <v>45253.07959</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>32610.97482</v>
+        <v>53397.47232</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>29820.17341</v>
+        <v>54410.92922</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>21134.42823</v>
+        <v>43578.78114</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>20323.99559</v>
+        <v>45313.82302</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>24859.84582</v>
+        <v>44363.98061</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>114262.51314</v>
+        <v>149087.65919</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>61330.79094</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>107414.42985</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>120028.387</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>25800.75977</v>
+        <v>32604.14819</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>22806.63824</v>
+        <v>35153.74959000001</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>30646.29446</v>
+        <v>40183.46657</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>18400.86332</v>
+        <v>29916.56606</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>23875.8996</v>
+        <v>37978.07435</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>22081.64311</v>
+        <v>37560.67116</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>16373.91033</v>
+        <v>33126.60622</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>13904.02496</v>
+        <v>32288.81783</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>16806.46014</v>
+        <v>31333.79744</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>86385.33537999999</v>
+        <v>110124.66357</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>42061.18178</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>71096.37231000001</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>83110.863</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>6526.11068</v>
+        <v>11720.4862</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>4270.26259</v>
+        <v>12012.18804</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>9490.854220000001</v>
+        <v>17179.07494</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>9230.1947</v>
+        <v>17622.52261</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>15750.0642</v>
+        <v>26663.08976</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>12881.70265</v>
+        <v>25557.58885</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>7150.70122</v>
+        <v>19850.79403</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>6396.21617</v>
+        <v>18700.34304</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>7340.012519999999</v>
+        <v>18625.709</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>37002.94311</v>
+        <v>56071.07358</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>25940.3809</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>45288.23454999999</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>46013.774</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>14161.82247</v>
+        <v>14950.86602</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>15631.45983</v>
+        <v>17909.40685</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>19046.8688</v>
+        <v>19199.5355</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>7243.088</v>
+        <v>9022.29939</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>5817.98268</v>
+        <v>8372.930319999999</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>7006.323780000001</v>
+        <v>8812.818310000001</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>7409.991639999999</v>
+        <v>10352.9431</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>6113.031190000001</v>
+        <v>9813.736779999999</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>7900.36275</v>
+        <v>9795.82964</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>40738.35295</v>
+        <v>43981.11574</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>12598.42857</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>20031.65114</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>29944.465</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>5112.72198</v>
+        <v>5788.61433</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>2904.83839</v>
+        <v>5084.830269999999</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>2069.6553</v>
+        <v>3510.10134</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>1927.56899</v>
+        <v>3032.32112</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>2258.58855</v>
+        <v>2891.67027</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>2171.38209</v>
+        <v>3122.59541</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>1775.56703</v>
+        <v>2786.45441</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>995.4038499999999</v>
+        <v>3375.36426</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>1351.35941</v>
+        <v>2697.53334</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>7642.6936</v>
+        <v>8822.813169999999</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>3040.13648</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>5082.949799999999</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>6745.842</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>0.10464</v>
+        <v>144.18164</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>0.07743000000000001</v>
+        <v>147.32443</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>38.91614</v>
+        <v>294.75479</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>0.01163</v>
+        <v>239.42294</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>49.26417</v>
+        <v>50.384</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>22.23459</v>
+        <v>67.66858999999999</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>37.65044</v>
+        <v>136.41468</v>
       </c>
       <c r="J18" s="48" t="n">
         <v>399.37375</v>
@@ -1484,94 +1455,109 @@
         <v>214.72546</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>1001.34572</v>
+        <v>1249.66108</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>482.23583</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>693.5368199999999</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>406.782</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>8733.685099999999</v>
+        <v>11151.15601</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>8133.43234</v>
+        <v>13864.69117</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>6332.05942</v>
+        <v>9836.172640000001</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>11050.54965</v>
+        <v>15336.51353</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>8735.075220000001</v>
+        <v>15419.39797</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>7738.530299999999</v>
+        <v>16850.25806</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>4760.517900000001</v>
+        <v>10452.17492</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>6419.97063</v>
+        <v>13025.00519</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>8053.385679999999</v>
+        <v>13030.18317</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>27877.17776</v>
+        <v>38962.99561999999</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>19269.60916</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>36318.05754</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>36917.524</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>9631.108330000001</v>
+        <v>15107.76818</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>9663.649230000001</v>
+        <v>19024.98327</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>9827.44823</v>
+        <v>17545.58454</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>11035.36889</v>
+        <v>19081.48706</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>10598.98142</v>
+        <v>23382.98307</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>10026.20551</v>
+        <v>22605.92783</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>7948.815030000001</v>
+        <v>19643.40207</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>8790.74525</v>
+        <v>21437.18705</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>10710.56958</v>
+        <v>21358.8702</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>25802.78446</v>
+        <v>37960.90437</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>22212.33103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>40993.65429</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>45134.281</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>20.97755</v>
@@ -1595,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>879.268</v>
+        <v>888.87213</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>0</v>
+        <v>251.96408</v>
       </c>
       <c r="L21" s="48" t="n">
         <v>42.63633</v>
@@ -1606,167 +1592,192 @@
       <c r="M21" s="48" t="n">
         <v>134.44047</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>86.78</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>3029.90587</v>
+        <v>3448.38934</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>3004.15019</v>
+        <v>4721.86856</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>2952.58608</v>
+        <v>3869.22494</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>2909.55407</v>
+        <v>4085.46489</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>3302.12564</v>
+        <v>4865.74993</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>2698.11504</v>
+        <v>4797.34389</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>2717.97645</v>
+        <v>5197.25154</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>2318.61033</v>
+        <v>4930.840929999999</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>3280.14088</v>
+        <v>5597.81036</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>10757.61499</v>
+        <v>13270.76434</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>5994.26512</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>10796.98306</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>9794.806</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>6580.22491</v>
+        <v>11638.40129</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>6648.7733</v>
+        <v>14292.38897</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>6849.07545</v>
+        <v>13650.5729</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>8125.814820000001</v>
+        <v>14996.02217</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>7260.24202</v>
+        <v>18480.61938</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>7250.349139999999</v>
+        <v>17730.84261</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>5230.83858</v>
+        <v>14446.15053</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>5592.866919999999</v>
+        <v>15617.47399</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>7430.4287</v>
+        <v>15509.09576</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>15002.53314</v>
+        <v>24647.5037</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>16083.62544</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>30062.23076</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>35252.695</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>-897.42323</v>
+        <v>-3956.61217</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>-1530.21689</v>
+        <v>-5160.2921</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-3495.38881</v>
+        <v>-7709.4119</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>15.18076</v>
+        <v>-3744.97353</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-1863.9062</v>
+        <v>-7963.585099999999</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-2287.67521</v>
+        <v>-5755.66977</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-3188.29713</v>
+        <v>-9191.227150000001</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-2370.77462</v>
+        <v>-8412.181859999999</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-2657.1839</v>
+        <v>-8328.687030000001</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>2074.3933</v>
+        <v>1002.09125</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-2942.72187</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-4675.59675</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-8216.757</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>1015.56707</v>
+        <v>3070.7834</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>850.15521</v>
+        <v>3471.5769</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>430.18443</v>
+        <v>2910.39363</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>568.81539</v>
+        <v>4740.52771</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>618.89744</v>
+        <v>1800.37715</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>1904.58926</v>
+        <v>3934.553</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>1504.39074</v>
+        <v>2602.06617</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>181.54836</v>
+        <v>10029.73712</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>219.91914</v>
+        <v>1818.84403</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>1906.47038</v>
+        <v>4618.64174</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>2784.12368</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>6233.65203</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>3128.578</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
@@ -1775,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>0</v>
+        <v>63.71591</v>
       </c>
       <c r="F26" s="48" t="n">
         <v>0</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1829,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>0</v>
+        <v>6576.87293</v>
       </c>
       <c r="K27" s="48" t="n">
         <v>0</v>
@@ -1838,52 +1854,62 @@
         <v>0</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>910.206</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>129.79107</v>
+        <v>963.07239</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>84.96285</v>
+        <v>897.00751</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>55.17586</v>
+        <v>1096.85657</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>40.02029</v>
+        <v>934.04767</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>50.20016</v>
+        <v>596.8098299999999</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>51.69432</v>
+        <v>648.9623800000001</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>76.13016999999999</v>
+        <v>717.93699</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>27.14798</v>
+        <v>1191.52236</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>40.01594</v>
+        <v>968.68508</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>279.02874</v>
+        <v>1116.60146</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>345.9479</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>637.48226</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>677.76</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0</v>
@@ -1898,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>0</v>
+        <v>125.27771</v>
       </c>
       <c r="H29" s="48" t="n">
         <v>0</v>
@@ -1918,26 +1944,31 @@
       <c r="M29" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>25.763</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>0</v>
+        <v>2.12542</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="F30" s="48" t="n">
         <v>0</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>0</v>
+        <v>21.91126</v>
       </c>
       <c r="H30" s="48" t="n">
         <v>0</v>
@@ -1946,10 +1977,10 @@
         <v>0</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>13.34337</v>
+        <v>15.51807</v>
       </c>
       <c r="L30" s="48" t="n">
         <v>41.53337999999999</v>
@@ -1957,26 +1988,31 @@
       <c r="M30" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>0.008109999999999999</v>
+        <v>18.20982</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>0.08518000000000001</v>
+        <v>3.4942</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>4.31222</v>
+        <v>14.68035</v>
       </c>
       <c r="F31" s="48" t="n">
         <v>1.56321</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>1.28262</v>
+        <v>1.30717</v>
       </c>
       <c r="H31" s="48" t="n">
         <v>0</v>
@@ -1988,58 +2024,68 @@
         <v>0</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>0</v>
+        <v>8.350540000000001</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>43.25972</v>
+        <v>48.30755000000001</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>57.21991000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>75.39733</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>38.144</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>704.0880699999999</v>
+        <v>1430.44852</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>612.83183</v>
+        <v>1808.10963</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>256.06828</v>
+        <v>1569.29595</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>350.84706</v>
+        <v>2898.4968</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>349.33232</v>
+        <v>663.4964699999999</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>1246.93795</v>
+        <v>2503.52378</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>55.43437</v>
+        <v>391.88937</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>71.91077</v>
+        <v>1081.88104</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>59.02889</v>
+        <v>214.32738</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>1059.85515</v>
+        <v>2637.73267</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>165.62899</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>466.08466</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>1843.841</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,128 +2164,148 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>181.67982</v>
+        <v>658.70267</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>150.50625</v>
+        <v>759.07104</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>111.20134</v>
+        <v>162.06812</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>167.55135</v>
+        <v>897.5865500000001</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>218.08234</v>
+        <v>391.57471</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>605.95699</v>
+        <v>782.06684</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>1372.8262</v>
+        <v>1492.23981</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>82.18961</v>
+        <v>1159.66079</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>106.61094</v>
+        <v>611.04296</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>477.84339</v>
+        <v>769.5166800000001</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>2215.32688</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>4144.48178</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>543.0700000000001</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>884.0361</v>
+        <v>1715.21631</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>1054.37125</v>
+        <v>2722.1886</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>2102.0981</v>
+        <v>3237.38993</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>765.4083499999999</v>
+        <v>4487.7057</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>234.06608</v>
+        <v>6042.13238</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>622.81322</v>
+        <v>5204.804160000001</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>220.28268</v>
+        <v>1437.01665</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>349.35012</v>
+        <v>3131.50548</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>152.44499</v>
+        <v>673.3677700000001</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>2940.47731</v>
+        <v>5557.2019</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>1255.80632</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>2570.00035</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>5026.115</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>0.39388</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>0.24014</v>
+        <v>550.4719</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>13.75772</v>
+        <v>27.26644</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>24.32484</v>
+        <v>24.71509</v>
       </c>
       <c r="G37" s="48" t="n">
         <v>0.55237</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>5.47475</v>
+        <v>6.98597</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>12.14632</v>
+        <v>13.571</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>0.87193</v>
+        <v>10.21623</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>2.6925</v>
+        <v>26.89628</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>61.03104</v>
+        <v>76.12096000000001</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>12.12364</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>56.31927</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>29.398</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>12.99638</v>
@@ -2243,25 +2314,25 @@
         <v>8.98701</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>0</v>
+        <v>37.83134</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>0</v>
+        <v>368.64072</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>47</v>
+        <v>116.77</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>278.68004</v>
+        <v>522.51644</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>0</v>
+        <v>26.60779</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>29.06099</v>
+        <v>1032.87389</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>14.79969</v>
+        <v>17.34369</v>
       </c>
       <c r="L38" s="48" t="n">
         <v>71.01291999999999</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>0.23174</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>2278.665</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2308,56 +2384,66 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>16.966</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>694.5105500000001</v>
+        <v>1397.22643</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>989.23433</v>
+        <v>1870.67582</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>1701.72945</v>
+        <v>2702.6153</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>103.61202</v>
+        <v>1923.38578</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>10.89726</v>
+        <v>5728.287469999999</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>124.08619</v>
+        <v>4122.559319999999</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>37.25624</v>
+        <v>1087.41614</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>100.50926</v>
+        <v>1784.61163</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>16.72363</v>
+        <v>143.08456</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>1237.44638</v>
+        <v>3756.62643</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>154.98891</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>753.21935</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>2580.716</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>0</v>
+        <v>78.18106</v>
       </c>
       <c r="E41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,248 +2516,283 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>176.13529</v>
+        <v>304.59962</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>55.90976999999999</v>
+        <v>213.87281</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>386.61093</v>
+        <v>469.67685</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>637.0260500000001</v>
+        <v>2170.51867</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>175.61645</v>
+        <v>196.52254</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>214.57224</v>
+        <v>552.74243</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>170.88012</v>
+        <v>309.42172</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>218.90794</v>
+        <v>303.80373</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>118.22917</v>
+        <v>486.04324</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>1517.82879</v>
+        <v>1600.28341</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>1088.46203</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>1760.22999</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>120.37</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>351.61888</v>
+        <v>1618.68074</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>330.7813</v>
+        <v>1796.24005</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>326.10686</v>
+        <v>2235.27179</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>381.83911</v>
+        <v>4032.75725</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>4070.45792</v>
+        <v>7155.40841</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>526.39523</v>
+        <v>4854.88895</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>1898.87681</v>
+        <v>4380.73474</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>927.0680699999999</v>
+        <v>3351.64079</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>117.33639</v>
+        <v>2152.35447</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>1643.36866</v>
+        <v>5401.79957</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>3536.92703</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>4555.49901</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>3541.164</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>196.92626</v>
+        <v>1351.21398</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>270.88725</v>
+        <v>1488.35213</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>264.3991</v>
+        <v>1987.77857</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>381.83911</v>
+        <v>3952.38173</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>4002.97134</v>
+        <v>6833.579900000001</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>477.3684</v>
+        <v>4523.84247</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>1894.28509</v>
+        <v>4182.30364</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>916.45296</v>
+        <v>3248.02815</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>114.00809</v>
+        <v>2084.64358</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>1506.66726</v>
+        <v>5265.09817</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>3454.16843</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>4360.0095</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>2221.424</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>154.69262</v>
+        <v>267.46676</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>59.89405</v>
+        <v>307.88792</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>61.70776</v>
+        <v>247.49322</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>0</v>
+        <v>80.37552000000001</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>67.48658</v>
+        <v>321.82851</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>49.02683</v>
+        <v>331.04648</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>4.59172</v>
+        <v>198.4311</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>10.61511</v>
+        <v>103.61264</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>3.3283</v>
+        <v>67.71089000000001</v>
       </c>
       <c r="L46" s="48" t="n">
         <v>136.7014</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>82.7586</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>195.48951</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>1319.74</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>-1117.51114</v>
+        <v>-4219.725820000001</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>-2065.21423</v>
+        <v>-6207.143849999999</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-5493.40934</v>
+        <v>-10271.67999</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-563.2513100000001</v>
+        <v>-7524.90877</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-5549.53276</v>
+        <v>-19360.74874</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-1532.2944</v>
+        <v>-11880.80988</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-3803.06588</v>
+        <v>-12406.91237</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-3465.64445</v>
+        <v>-4865.59101</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-2707.04614</v>
+        <v>-9335.56524</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-602.98229</v>
+        <v>-5338.268480000001</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-4951.33154</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-5567.44408</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-13655.458</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>215.99995</v>
+        <v>593.4955200000001</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>432.89329</v>
+        <v>4366.90381</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>348.55748</v>
+        <v>1071.30511</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>165.11424</v>
+        <v>39127.61416</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>965.77077</v>
+        <v>2968.03989</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>838.91197</v>
+        <v>1499.99518</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>620.1492</v>
+        <v>1447.97517</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>219.91822</v>
+        <v>9063.77491</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>492.8225</v>
+        <v>2411.62511</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>1699.84696</v>
+        <v>3442.93376</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>334.95976</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>2792.58653</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>9622.628000000001</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>0.03</v>
+        <v>14.618</v>
       </c>
       <c r="D49" s="48" t="n">
         <v>0.47121</v>
@@ -2675,19 +2801,19 @@
         <v>4.79547</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>0</v>
+        <v>38695.47568</v>
       </c>
       <c r="G49" s="48" t="n">
         <v>2.957</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>0</v>
+        <v>3.07728</v>
       </c>
       <c r="I49" s="48" t="n">
         <v>0</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>0.06319</v>
+        <v>35.1939</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>0</v>
@@ -2698,320 +2824,363 @@
       <c r="M49" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>215.96995</v>
+        <v>578.87752</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>432.42208</v>
+        <v>4366.432599999999</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>343.76201</v>
+        <v>1066.50964</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>165.11424</v>
+        <v>432.13848</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>962.81377</v>
+        <v>2965.08289</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>838.91197</v>
+        <v>1496.9179</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>620.1492</v>
+        <v>1447.97517</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>219.85503</v>
+        <v>9028.58101</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>492.8225</v>
+        <v>2411.62511</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>1695.63444</v>
+        <v>3438.72124</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>334.95976</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>2792.58653</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>9622.628000000001</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>532.38771</v>
+        <v>1174.84681</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>217.07802</v>
+        <v>1791.96321</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>2716.72853</v>
+        <v>3239.16165</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>1213.05787</v>
+        <v>9172.983819999999</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>644.8209499999999</v>
+        <v>3148.9819</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>1033.22882</v>
+        <v>2919.13835</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>357.93089</v>
+        <v>2056.36281</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>354.24383</v>
+        <v>3056.34393</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>1288.29504</v>
+        <v>2663.32307</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>2299.25044</v>
+        <v>13661.80238</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>2003.31759</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>87283.96106</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>7021.834</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>177.43485</v>
+        <v>252.18959</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>52.97115</v>
+        <v>60.3857</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>45.94688</v>
+        <v>60.66212</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>46.08604</v>
+        <v>231.95609</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>0</v>
+        <v>810.0590500000001</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>54.6328</v>
+        <v>764.5499699999999</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>8.875200000000001</v>
+        <v>152.70525</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>0</v>
+        <v>134.39971</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>0</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>122.11976</v>
+        <v>136.87109</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>129.40211</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>2975.399</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>51.16981</v>
+        <v>516.08674</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>37.55858</v>
+        <v>238.49743</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>2.42215</v>
+        <v>10.24439</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>63.88605</v>
+        <v>7523.15579</v>
       </c>
       <c r="G53" s="48" t="n">
         <v>14.11999</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>13.99928</v>
+        <v>14.85113</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>11.2405</v>
+        <v>225.6744</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>27.71303</v>
+        <v>440.43786</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>46.0227</v>
+        <v>46.832</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>53.44609</v>
+        <v>3986.51154</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>4.09162</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>586.6372700000001</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>20.736</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>303.78305</v>
+        <v>406.57048</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>126.54829</v>
+        <v>1493.08008</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>2668.3595</v>
+        <v>3168.25514</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>1103.08578</v>
+        <v>1417.87194</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>630.70096</v>
+        <v>2324.80286</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>964.59674</v>
+        <v>2139.73725</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>337.81519</v>
+        <v>1677.98316</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>326.5308</v>
+        <v>2481.50636</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>1242.27234</v>
+        <v>2616.49107</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>2123.68459</v>
+        <v>9538.419749999999</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>1999.22597</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>86567.92168000001</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>4025.699</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-1433.8989</v>
+        <v>-4801.07711</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>-1849.39896</v>
+        <v>-3632.20325</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-7861.58039</v>
+        <v>-12439.53653</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-1611.19494</v>
+        <v>22429.72157</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-5228.58294</v>
+        <v>-19541.69075</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-1726.61125</v>
+        <v>-13299.95305</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-3540.84757</v>
+        <v>-13015.30001</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-3599.97006</v>
+        <v>1141.83997</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-3502.51868</v>
+        <v>-9587.263199999999</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-1202.38577</v>
+        <v>-15557.1371</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-6619.68937</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-90058.81861</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-11054.664</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>308.83625</v>
+        <v>552.66241</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>200.80779</v>
+        <v>730.41314</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>180.53303</v>
+        <v>568.9486899999999</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>287.48706</v>
+        <v>353.75167</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>247.66164</v>
+        <v>397.31287</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>362.19106</v>
+        <v>659.97834</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>153.97242</v>
+        <v>522.24274</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>121.09665</v>
+        <v>484.41018</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>140.74702</v>
+        <v>358.922</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>754.19915</v>
+        <v>1367.67491</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>922.48961</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>1617.45471</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>1770.839</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-1742.73515</v>
+        <v>-5353.739519999999</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-2050.20675</v>
+        <v>-4362.616389999999</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-8042.11342</v>
+        <v>-13008.48522</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-1898.682</v>
+        <v>22075.9699</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-5476.24458</v>
+        <v>-19939.00362</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-2088.80231</v>
+        <v>-13959.93139</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-3694.81999</v>
+        <v>-13537.54275</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-3721.06671</v>
+        <v>657.42979</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-3643.2657</v>
+        <v>-9946.1852</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-1956.58492</v>
+        <v>-16924.81201</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-7542.178980000001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-91676.27331999999</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-12825.503</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>310</v>
+        <v>360</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>285</v>
+        <v>357</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>279</v>
+        <v>346</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>250</v>
+        <v>315</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>226</v>
+        <v>303</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>200</v>
+        <v>288</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>182</v>
+        <v>278</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>186</v>
+        <v>295</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>192</v>
+        <v>283</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>220</v>
+        <v>338</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>361</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>